--- a/data/raw/Human_Evaluation_Results_4th.xlsx
+++ b/data/raw/Human_Evaluation_Results_4th.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\einsortieren\_DATA\Uni\WWU\master\19_wise2425\Aligning AI\project\_orga\allocate\finished_heval4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\einsortieren\_DATA\Uni\WWU\master\19_wise2425\Aligning AI\project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF299745-BA7E-40E8-B302-C5D539410BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF96E95-700D-4847-846A-617B69D3069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4020" yWindow="-17280" windowWidth="15360" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="-17280" windowWidth="15360" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sophia_4th_df" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="56">
   <si>
     <t>source</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>newspaper_ampel-aus_0-200_processed.json_128</t>
+  </si>
+  <si>
+    <t>Jannis</t>
+  </si>
+  <si>
+    <t>newspaper_ampel-aus_201-300_processed.json_59</t>
+  </si>
+  <si>
+    <t>articles_newspapers_processed.json_67</t>
+  </si>
+  <si>
+    <t>satirical</t>
+  </si>
+  <si>
+    <t>newspaper_D-Day_processed.json_132</t>
+  </si>
+  <si>
+    <t>Bene</t>
+  </si>
+  <si>
+    <t>articles_newspapers_processed.json_93</t>
+  </si>
+  <si>
+    <t>newspaper_ampel-aus_0-200_processed.json_156</t>
+  </si>
+  <si>
+    <t>newspaper_ampel-aus_0-200_processed.json_31</t>
   </si>
 </sst>
 </file>
@@ -178,6 +205,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,7 +476,7 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1150,18 +1178,393 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15">
+        <v>93</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>156</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/raw/Human_Evaluation_Results_4th.xlsx
+++ b/data/raw/Human_Evaluation_Results_4th.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\einsortieren\_DATA\Uni\WWU\master\19_wise2425\Aligning AI\project\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF96E95-700D-4847-846A-617B69D3069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38B1331-AF1A-49A4-8D96-E825D13DCB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="-17280" windowWidth="15360" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4128" yWindow="-17388" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sophia_4th_df" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>newspaper_ampel-aus_201-300_processed.json_77</t>
   </si>
   <si>
-    <t>newspaper_ampel-aus_0-200_processed.json_24</t>
-  </si>
-  <si>
     <t>Tim</t>
   </si>
   <si>
@@ -151,18 +148,12 @@
     <t>Article from viewpoint before Ampel-Aus</t>
   </si>
   <si>
-    <t>newspaper_ampel-aus_0-200_processed.json_174</t>
-  </si>
-  <si>
     <t>articles_newspapers_processed.json</t>
   </si>
   <si>
     <t>Article not about coalition breakdown at all, finds one mentions in a quote</t>
   </si>
   <si>
-    <t>newspaper_ampel-aus_0-200_processed.json_128</t>
-  </si>
-  <si>
     <t>Jannis</t>
   </si>
   <si>
@@ -188,17 +179,33 @@
   </si>
   <si>
     <t>newspaper_ampel-aus_0-200_processed.json_31</t>
+  </si>
+  <si>
+    <t>newspaper_D-Day_processed.json_64</t>
+  </si>
+  <si>
+    <t>newspaper_koalitionskrise_52_processed.json_36</t>
+  </si>
+  <si>
+    <t>newspaper_ampel-aus_300-400_processed.json_60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,12 +238,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -250,13 +263,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,12 +492,16 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="10.7265625" customWidth="1"/>
+    <col min="1" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="19" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="3.81640625" customWidth="1"/>
+    <col min="21" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
@@ -862,66 +882,66 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:21" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>64</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>33</v>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -929,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -938,52 +958,52 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -991,7 +1011,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1045,136 +1065,136 @@
         <v>24</v>
       </c>
       <c r="U9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D10" s="4">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10">
-        <v>36</v>
-      </c>
-      <c r="E10">
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11">
-        <v>67</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="U11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1183,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1237,69 +1257,69 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>60</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="4">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>49</v>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1307,7 +1327,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1361,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1372,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>93</v>
@@ -1426,7 +1446,7 @@
         <v>24</v>
       </c>
       <c r="U15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1434,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1488,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1496,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1550,7 +1570,7 @@
         <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
